--- a/030-試験/032-結合試験計画書兼結果書.xlsx
+++ b/030-試験/032-結合試験計画書兼結果書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\030-試験\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CFA9D-0264-45D7-8005-6FDE0E2F4082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BEC1A4-51CF-4927-8C1B-9FBAAA565B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="4815" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{A6033112-71BA-4037-88EF-FEBDF2F3FF10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6033112-71BA-4037-88EF-FEBDF2F3FF10}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験_前提条件" sheetId="4" r:id="rId1"/>
@@ -1697,6 +1697,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,58 +1784,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,33 +1833,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,142 +2173,142 @@
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:91" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="97" t="s">
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="84">
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="100">
         <v>45573</v>
       </c>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="85" t="s">
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="90"/>
-      <c r="BF1" s="91"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="107"/>
     </row>
     <row r="2" spans="1:91" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="95" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="96" t="s">
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="95" t="s">
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="96" t="s">
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="94"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="112"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="108"/>
+      <c r="BD2" s="109"/>
+      <c r="BE2" s="109"/>
+      <c r="BF2" s="110"/>
     </row>
     <row r="3" spans="1:91" ht="13.2" customHeight="1" thickTop="1">
       <c r="B3" s="32"/>
@@ -2397,96 +2397,96 @@
       <c r="CM4" s="46"/>
     </row>
     <row r="5" spans="1:91">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="98" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="98" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="98" t="s">
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="100"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="86"/>
     </row>
     <row r="6" spans="1:91">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="103"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="89"/>
     </row>
     <row r="7" spans="1:91">
       <c r="A7" s="59">
@@ -7446,13 +7446,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="X5:AN6"/>
-    <mergeCell ref="N5:W6"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:M6"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="A1:X2"/>
     <mergeCell ref="AQ1:AZ1"/>
     <mergeCell ref="BA1:BB2"/>
     <mergeCell ref="BC1:BF2"/>
@@ -7461,6 +7454,13 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AZ2"/>
     <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="X5:AN6"/>
+    <mergeCell ref="N5:W6"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:M6"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="A1:X2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7483,140 +7483,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="97" t="s">
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="84">
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="100">
         <v>45573</v>
       </c>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="85" t="s">
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="91"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="107"/>
     </row>
     <row r="2" spans="1:80" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="95" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="96" t="s">
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="95" t="s">
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="96" t="s">
+      <c r="AM2" s="111"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="94"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="108"/>
+      <c r="BC2" s="109"/>
+      <c r="BD2" s="109"/>
+      <c r="BE2" s="110"/>
     </row>
     <row r="3" spans="1:80" ht="15" customHeight="1" thickTop="1"/>
     <row r="4" spans="1:80" ht="15" customHeight="1">
@@ -7679,192 +7679,192 @@
       <c r="BE4" s="24"/>
     </row>
     <row r="5" spans="1:80" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="127" t="s">
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="115" t="s">
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="117"/>
-      <c r="AN5" s="121" t="s">
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="122"/>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="122"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="121" t="s">
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
+      <c r="AX5" s="114"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="BA5" s="122"/>
-      <c r="BB5" s="122"/>
-      <c r="BC5" s="122"/>
-      <c r="BD5" s="122"/>
-      <c r="BE5" s="122"/>
-      <c r="BF5" s="122"/>
-      <c r="BG5" s="122"/>
-      <c r="BH5" s="122"/>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122"/>
-      <c r="BQ5" s="123"/>
-      <c r="BR5" s="121" t="s">
+      <c r="BA5" s="114"/>
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="114"/>
+      <c r="BD5" s="114"/>
+      <c r="BE5" s="114"/>
+      <c r="BF5" s="114"/>
+      <c r="BG5" s="114"/>
+      <c r="BH5" s="114"/>
+      <c r="BI5" s="114"/>
+      <c r="BJ5" s="114"/>
+      <c r="BK5" s="114"/>
+      <c r="BL5" s="114"/>
+      <c r="BM5" s="114"/>
+      <c r="BN5" s="114"/>
+      <c r="BO5" s="114"/>
+      <c r="BP5" s="114"/>
+      <c r="BQ5" s="115"/>
+      <c r="BR5" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="BS5" s="122"/>
-      <c r="BT5" s="123"/>
-      <c r="BU5" s="121" t="s">
+      <c r="BS5" s="114"/>
+      <c r="BT5" s="115"/>
+      <c r="BU5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="BV5" s="122"/>
-      <c r="BW5" s="122"/>
-      <c r="BX5" s="123"/>
-      <c r="BY5" s="121" t="s">
+      <c r="BV5" s="114"/>
+      <c r="BW5" s="114"/>
+      <c r="BX5" s="115"/>
+      <c r="BY5" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="BZ5" s="122"/>
-      <c r="CA5" s="122"/>
-      <c r="CB5" s="123"/>
+      <c r="BZ5" s="114"/>
+      <c r="CA5" s="114"/>
+      <c r="CB5" s="115"/>
     </row>
     <row r="6" spans="1:80" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="127" t="s">
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="127" t="s">
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="126"/>
-      <c r="AZ6" s="124"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125"/>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="125"/>
-      <c r="BJ6" s="125"/>
-      <c r="BK6" s="125"/>
-      <c r="BL6" s="125"/>
-      <c r="BM6" s="125"/>
-      <c r="BN6" s="125"/>
-      <c r="BO6" s="125"/>
-      <c r="BP6" s="125"/>
-      <c r="BQ6" s="126"/>
-      <c r="BR6" s="124"/>
-      <c r="BS6" s="125"/>
-      <c r="BT6" s="126"/>
-      <c r="BU6" s="124"/>
-      <c r="BV6" s="125"/>
-      <c r="BW6" s="125"/>
-      <c r="BX6" s="126"/>
-      <c r="BY6" s="124"/>
-      <c r="BZ6" s="125"/>
-      <c r="CA6" s="125"/>
-      <c r="CB6" s="126"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="128"/>
+      <c r="AI6" s="128"/>
+      <c r="AJ6" s="128"/>
+      <c r="AK6" s="128"/>
+      <c r="AL6" s="128"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="117"/>
+      <c r="AP6" s="117"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="117"/>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="117"/>
+      <c r="AV6" s="117"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="117"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="117"/>
+      <c r="BB6" s="117"/>
+      <c r="BC6" s="117"/>
+      <c r="BD6" s="117"/>
+      <c r="BE6" s="117"/>
+      <c r="BF6" s="117"/>
+      <c r="BG6" s="117"/>
+      <c r="BH6" s="117"/>
+      <c r="BI6" s="117"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="117"/>
+      <c r="BO6" s="117"/>
+      <c r="BP6" s="117"/>
+      <c r="BQ6" s="118"/>
+      <c r="BR6" s="116"/>
+      <c r="BS6" s="117"/>
+      <c r="BT6" s="118"/>
+      <c r="BU6" s="116"/>
+      <c r="BV6" s="117"/>
+      <c r="BW6" s="117"/>
+      <c r="BX6" s="118"/>
+      <c r="BY6" s="116"/>
+      <c r="BZ6" s="117"/>
+      <c r="CA6" s="117"/>
+      <c r="CB6" s="118"/>
     </row>
     <row r="7" spans="1:80" ht="15" customHeight="1">
       <c r="A7" s="29" t="s">
@@ -46447,6 +46447,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:I6"/>
+    <mergeCell ref="Z5:AM6"/>
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="BB1:BE2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AY2"/>
+    <mergeCell ref="AP1:AY1"/>
+    <mergeCell ref="AZ1:BA2"/>
     <mergeCell ref="BR5:BT6"/>
     <mergeCell ref="AZ5:BQ6"/>
     <mergeCell ref="BU5:BX6"/>
@@ -46456,20 +46470,6 @@
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="J5:Y5"/>
     <mergeCell ref="AN5:AY6"/>
-    <mergeCell ref="BB1:BE2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AY2"/>
-    <mergeCell ref="AP1:AY1"/>
-    <mergeCell ref="AZ1:BA2"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:I6"/>
-    <mergeCell ref="Z5:AM6"/>
-    <mergeCell ref="A1:W2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -47103,17 +47103,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
